--- a/База данных артикулов для выкупов и начислений.xlsx
+++ b/База данных артикулов для выкупов и начислений.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Шаблоны програм (Базы данных)\База данных (выкупы и начисления)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF5939-DD4E-4CFA-B5D5-03D4E330D434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBD50E6-2D61-4535-A099-D87EC665CC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Шаблон_Ozon" sheetId="3" r:id="rId1"/>
-    <sheet name="Шаблон_WB" sheetId="4" r:id="rId2"/>
+    <sheet name="Отдельно Озон Nimba" sheetId="6" r:id="rId1"/>
+    <sheet name="Отдельно Озон Galioni" sheetId="5" r:id="rId2"/>
+    <sheet name="Отдельно ВБ Nimba" sheetId="7" r:id="rId3"/>
+    <sheet name="Отдельно ВБ Galioni" sheetId="8" r:id="rId4"/>
+    <sheet name="Шаблон_WB" sheetId="4" r:id="rId5"/>
+    <sheet name="Шаблон_Ozon" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Шаблон_Ozon!$C$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Шаблон_Ozon!$C$1:$D$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="234">
   <si>
     <t>накидка синий хлопок</t>
   </si>
@@ -728,13 +732,16 @@
   </si>
   <si>
     <t>Туника/зеленый</t>
+  </si>
+  <si>
+    <t>Articles_cabinet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +773,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -775,7 +788,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -798,12 +811,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,19 +863,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC6BDB01-21A3-46E2-9687-AFB26F43ACE1}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{11849050-2373-40F0-9683-62608C732D66}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,22 +1166,2328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A47A-362B-439F-910C-AAA94E4DE4D3}">
-  <dimension ref="A1:E94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923B0BD2-CF23-4632-B633-C9BAE5DDC9D8}">
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A4,Шаблон_Ozon!A:D,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>IF(C2=Шаблон_Ozon!C4,Шаблон_Ozon!D4,0)</f>
+        <v>парео малина шиф</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A6,Шаблон_Ozon!A:D,3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>IF(C3=Шаблон_Ozon!C6,Шаблон_Ozon!D6,0)</f>
+        <v>парео оранж шифон</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A8,Шаблон_Ozon!A:D,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f>IF(C4=Шаблон_Ozon!C8,Шаблон_Ozon!D8,0)</f>
+        <v>парео черный шифон</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A10,Шаблон_Ozon!A:D,3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>IF(C5=Шаблон_Ozon!C10,Шаблон_Ozon!D10,0)</f>
+        <v>парео фуксия</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A12,Шаблон_Ozon!A:D,3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>IF(C6=Шаблон_Ozon!C12,Шаблон_Ozon!D12,0)</f>
+        <v>туник шифон зелёный</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A15,Шаблон_Ozon!A:D,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>IF(C7=Шаблон_Ozon!C15,Шаблон_Ozon!D15,0)</f>
+        <v>туник шифон белый</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A17,Шаблон_Ozon!A:D,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>IF(C8=Шаблон_Ozon!C17,Шаблон_Ozon!D17,0)</f>
+        <v>Парео голубое шиф</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A18,Шаблон_Ozon!A:D,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>IF(C9=Шаблон_Ozon!C18,Шаблон_Ozon!D18,0)</f>
+        <v>туник шифон голубой</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A20,Шаблон_Ozon!A:D,3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>IF(C10=Шаблон_Ozon!C20,Шаблон_Ozon!D20,0)</f>
+        <v>парео салатовый</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A22,Шаблон_Ozon!A:D,3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>IF(C11=Шаблон_Ozon!C22,Шаблон_Ozon!D22,0)</f>
+        <v>парео желтый шиф</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A23,Шаблон_Ozon!A:D,3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>IF(C12=Шаблон_Ozon!C23,Шаблон_Ozon!D23,0)</f>
+        <v>туника шифон жёлтый</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A25,Шаблон_Ozon!A:D,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>IF(C13=Шаблон_Ozon!C25,Шаблон_Ozon!D25,0)</f>
+        <v>парео хлопок зелёный</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A26,Шаблон_Ozon!A:D,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>IF(C14=Шаблон_Ozon!C26,Шаблон_Ozon!D26,0)</f>
+        <v>туника хлоп зелен</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A28,Шаблон_Ozon!A:D,3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f>IF(C15=Шаблон_Ozon!C28,Шаблон_Ozon!D28,0)</f>
+        <v>парео хлопок синий</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A30,Шаблон_Ozon!A:D,3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>IF(C16=Шаблон_Ozon!C30,Шаблон_Ozon!D30,0)</f>
+        <v>туник хлоп желт</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A31,Шаблон_Ozon!A:D,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>IF(C17=Шаблон_Ozon!C31,Шаблон_Ozon!D31,0)</f>
+        <v>туник хлопок роза</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A33,Шаблон_Ozon!A:D,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>IF(C18=Шаблон_Ozon!C33,Шаблон_Ozon!D33,0)</f>
+        <v>парео черный хлопок</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A35,Шаблон_Ozon!A:D,3,0)</f>
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>IF(C19=Шаблон_Ozon!C35,Шаблон_Ozon!D35,0)</f>
+        <v>парео белый хлоп</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A37,Шаблон_Ozon!A:D,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A39,Шаблон_Ozon!A:D,3,0)</f>
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>IF(C21=Шаблон_Ozon!C39,Шаблон_Ozon!D39,0)</f>
+        <v>парео без ворот синий</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A41,Шаблон_Ozon!A:D,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>IF(C22=Шаблон_Ozon!C41,Шаблон_Ozon!D41,0)</f>
+        <v>парео без ворот черный</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <f>VLOOKUP(Шаблон_Ozon!A43,Шаблон_Ozon!A:D,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>IF(C23=Шаблон_Ozon!C43,Шаблон_Ozon!D43,0)</f>
+        <v>парео без ворот зелен</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5">
+        <v>31</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>32</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5">
+        <v>33</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>34</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="5">
+        <v>36</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="5">
+        <v>38</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="5">
+        <v>39</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="5">
+        <v>40</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <v>41</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="5">
+        <v>43</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:G104">
+    <sortCondition ref="E4:E104"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E00AC-8E73-456B-B1C1-EDCB53E0A63F}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5">
+        <v>34</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5">
+        <v>37</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5">
+        <v>40</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D47">
+    <sortCondition ref="C2:C47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC00A05-3366-4B2C-9502-2EEADE74708F}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>19</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5">
+        <v>23</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>25</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5">
+        <v>26</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <v>26</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5">
+        <v>27</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5">
+        <v>27</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5">
+        <v>28</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>28</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5">
+        <v>29</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>29</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5">
+        <v>29</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="5">
+        <v>30</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
+        <v>30</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="5">
+        <v>30</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="5">
+        <v>31</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="5">
+        <v>31</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <v>31</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <v>32</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="5">
+        <v>33</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="5">
+        <v>34</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>35</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>36</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="5">
+        <v>37</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="5">
+        <v>38</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C58" s="5">
+        <v>39</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="5">
+        <v>40</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>41</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="5">
+        <v>42</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="5">
+        <v>43</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D63" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D63">
+    <sortCondition ref="C1:C63"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B12D-B272-475E-9836-01BEA7BAFE1F}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="33.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
@@ -1135,12 +3497,11 @@
       <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1150,12 +3511,11 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1165,12 +3525,11 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1178,14 +3537,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1193,14 +3551,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1208,14 +3565,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1223,14 +3579,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1238,14 +3593,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1253,14 +3607,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1268,14 +3621,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1283,14 +3635,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1298,14 +3649,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1313,14 +3663,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1328,14 +3677,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1343,14 +3691,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="5">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1358,14 +3705,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="5">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1373,14 +3719,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="5">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1388,14 +3733,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="5">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1403,14 +3747,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="5">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1418,14 +3761,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1433,14 +3775,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="5">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1448,14 +3789,13 @@
         <v>41</v>
       </c>
       <c r="C22" s="5">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1463,14 +3803,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="5">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1478,14 +3817,13 @@
         <v>45</v>
       </c>
       <c r="C24" s="5">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1493,14 +3831,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="5">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1508,14 +3845,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="5">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1523,14 +3859,13 @@
         <v>51</v>
       </c>
       <c r="C27" s="5">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1538,14 +3873,13 @@
         <v>53</v>
       </c>
       <c r="C28" s="5">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1553,14 +3887,13 @@
         <v>55</v>
       </c>
       <c r="C29" s="5">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1568,14 +3901,13 @@
         <v>56</v>
       </c>
       <c r="C30" s="5">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1583,14 +3915,13 @@
         <v>58</v>
       </c>
       <c r="C31" s="5">
-        <v>15</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1598,14 +3929,13 @@
         <v>60</v>
       </c>
       <c r="C32" s="5">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1613,14 +3943,13 @@
         <v>62</v>
       </c>
       <c r="C33" s="5">
-        <v>16</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1628,14 +3957,13 @@
         <v>64</v>
       </c>
       <c r="C34" s="5">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1643,14 +3971,13 @@
         <v>66</v>
       </c>
       <c r="C35" s="5">
-        <v>17</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1658,14 +3985,13 @@
         <v>68</v>
       </c>
       <c r="C36" s="5">
-        <v>18</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1673,14 +3999,13 @@
         <v>69</v>
       </c>
       <c r="C37" s="5">
-        <v>18</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1688,14 +4013,13 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1703,14 +4027,13 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>19</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1718,14 +4041,13 @@
         <v>74</v>
       </c>
       <c r="C40" s="5">
-        <v>20</v>
-      </c>
-      <c r="D40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1733,14 +4055,13 @@
         <v>75</v>
       </c>
       <c r="C41" s="5">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1748,14 +4069,13 @@
         <v>76</v>
       </c>
       <c r="C42" s="5">
-        <v>21</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1763,14 +4083,13 @@
         <v>77</v>
       </c>
       <c r="C43" s="5">
-        <v>21</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1778,573 +4097,92 @@
         <v>78</v>
       </c>
       <c r="C44" s="5">
-        <v>22</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="5">
-        <v>22</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
-        <v>23</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
-        <v>23</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="5">
-        <v>24</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="5">
-        <v>24</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5">
-        <v>25</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5">
-        <v>25</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5">
-        <v>25</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5">
-        <v>26</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5">
-        <v>26</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5">
-        <v>26</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>27</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5">
-        <v>27</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5">
-        <v>27</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5">
-        <v>28</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5">
-        <v>28</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5">
-        <v>28</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5">
-        <v>29</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5">
-        <v>29</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5">
-        <v>29</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5">
-        <v>30</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5">
-        <v>30</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5">
-        <v>30</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5">
-        <v>31</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5">
-        <v>31</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5">
-        <v>31</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5">
-        <v>32</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5">
-        <v>32</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5">
-        <v>33</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="5">
-        <v>33</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5">
-        <v>34</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5">
-        <v>34</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5">
-        <v>35</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="5">
-        <v>35</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5">
-        <v>36</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="5">
-        <v>36</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="5">
-        <v>37</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>37</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="5">
-        <v>38</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5">
-        <v>38</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="5">
-        <v>39</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="5">
-        <v>39</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5">
-        <v>40</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5">
-        <v>40</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="5">
-        <v>41</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5">
-        <v>42</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="5">
         <v>43</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="D49" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D55">
+    <sortCondition ref="C1:C55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C81525-87B5-40FD-A761-0FAE8806B157}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" style="3" customWidth="1"/>
@@ -2363,8 +4201,8 @@
       <c r="D1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -2969,530 +4807,530 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>21</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="9">
+      <c r="C46" s="5">
         <v>22</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>22</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="9">
+      <c r="C48" s="5">
         <v>23</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>23</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="9">
+      <c r="C50" s="5">
         <v>24</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>24</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="9">
+      <c r="C52" s="5">
         <v>25</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="7">
+      <c r="C53" s="12">
         <v>25</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="7">
+      <c r="C54" s="12">
         <v>25</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>25</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <v>25</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="9">
+      <c r="C57" s="5">
         <v>26</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="7">
+      <c r="C58" s="12">
         <v>26</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="7">
+      <c r="C59" s="12">
         <v>26</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>26</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <v>26</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="9">
+      <c r="C62" s="5">
         <v>27</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="7">
+      <c r="C63" s="12">
         <v>27</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="7">
+      <c r="C64" s="12">
         <v>27</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <v>27</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="3">
+      <c r="C66" s="5">
         <v>27</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="9">
+      <c r="C67" s="5">
         <v>28</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="7">
+      <c r="C68" s="12">
         <v>28</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="7">
+      <c r="C69" s="12">
         <v>28</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="3">
+      <c r="C70" s="5">
         <v>28</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="3">
+      <c r="C71" s="5">
         <v>28</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="9">
+      <c r="C72" s="5">
         <v>29</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="7">
+      <c r="C73" s="12">
         <v>29</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="7">
+      <c r="C74" s="12">
         <v>29</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="3">
+      <c r="C75" s="5">
         <v>29</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="3">
+      <c r="C76" s="5">
         <v>29</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="3">
+      <c r="C77" s="5">
         <v>30</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="7">
+      <c r="C78" s="12">
         <v>30</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="7">
+      <c r="C79" s="12">
         <v>30</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>30</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="3">
+      <c r="C81" s="5">
         <v>30</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="3">
+      <c r="C82" s="5">
         <v>31</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="7">
+      <c r="C83" s="12">
         <v>31</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="7">
+      <c r="C84" s="12">
         <v>31</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="3">
+      <c r="C85" s="5">
         <v>31</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="3">
+      <c r="C86" s="5">
         <v>31</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="3">
+      <c r="C87" s="5">
         <v>32</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="3">
+      <c r="C88" s="5">
         <v>32</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="3">
+      <c r="C89" s="5">
         <v>33</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="3">
+      <c r="C90" s="5">
         <v>33</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="3">
+      <c r="C91" s="5">
         <v>34</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="3">
+      <c r="C92" s="5">
         <v>34</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="3">
+      <c r="C93" s="5">
         <v>35</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="3">
+      <c r="C94" s="5">
         <v>35</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="3">
+      <c r="C95" s="5">
         <v>36</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="3">
+      <c r="C96" s="5">
         <v>36</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="3">
+      <c r="C97" s="5">
         <v>37</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="3">
+      <c r="C98" s="5">
         <v>37</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="7">
+      <c r="C99" s="12">
         <v>38</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="3">
+      <c r="C100" s="5">
         <v>38</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="7">
+      <c r="C101" s="12">
         <v>39</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="3">
+      <c r="C102" s="5">
         <v>39</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="7">
+      <c r="C103" s="12">
         <v>40</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="3">
+      <c r="C104" s="5">
         <v>40</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="3">
+      <c r="C105" s="5">
         <v>41</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="3">
+      <c r="C106" s="5">
         <v>41</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="3">
+      <c r="C107" s="5">
         <v>42</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="3">
+      <c r="C108" s="5">
         <v>42</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="3">
+      <c r="C109" s="5">
         <v>43</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="3">
+      <c r="C110" s="5">
         <v>43</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3502,4 +5340,1127 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A47A-362B-439F-910C-AAA94E4DE4D3}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="42.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5">
+        <v>18</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5">
+        <v>18</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5">
+        <v>19</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>21</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5">
+        <v>22</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="5">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="5">
+        <v>23</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="5">
+        <v>24</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="5">
+        <v>24</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <v>25</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <v>25</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="5">
+        <v>25</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="5">
+        <v>26</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>26</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="5">
+        <v>27</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="5">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="5">
+        <v>27</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="5">
+        <v>28</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>28</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="5">
+        <v>28</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="5">
+        <v>29</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="5">
+        <v>29</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="5">
+        <v>29</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="5">
+        <v>30</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="5">
+        <v>30</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="5">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="5">
+        <v>31</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="5">
+        <v>31</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="5">
+        <v>31</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="5">
+        <v>32</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="5">
+        <v>32</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="5">
+        <v>33</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="5">
+        <v>33</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="5">
+        <v>34</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="5">
+        <v>34</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="5">
+        <v>35</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="5">
+        <v>35</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="5">
+        <v>36</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="5">
+        <v>36</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="5">
+        <v>37</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="5">
+        <v>37</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="5">
+        <v>38</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="5">
+        <v>38</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="5">
+        <v>39</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="5">
+        <v>39</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="5">
+        <v>40</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="5">
+        <v>40</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="5">
+        <v>41</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="5">
+        <v>42</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="5">
+        <v>43</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="5"/>
+      <c r="E94" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/База данных артикулов для выкупов и начислений.xlsx
+++ b/База данных артикулов для выкупов и начислений.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Шаблоны програм (Базы данных)\База данных (выкупы и начисления)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBD50E6-2D61-4535-A099-D87EC665CC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65989CDC-A121-450B-A2EF-45AC90955F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отдельно Озон Nimba" sheetId="6" r:id="rId1"/>
     <sheet name="Отдельно Озон Galioni" sheetId="5" r:id="rId2"/>
-    <sheet name="Отдельно ВБ Nimba" sheetId="7" r:id="rId3"/>
-    <sheet name="Отдельно ВБ Galioni" sheetId="8" r:id="rId4"/>
-    <sheet name="Шаблон_WB" sheetId="4" r:id="rId5"/>
-    <sheet name="Шаблон_Ozon" sheetId="3" r:id="rId6"/>
+    <sheet name="Отдельно Озон AGNIA" sheetId="9" r:id="rId3"/>
+    <sheet name="Отдельно ВБ Nimba" sheetId="7" r:id="rId4"/>
+    <sheet name="Отдельно ВБ Galioni" sheetId="8" r:id="rId5"/>
+    <sheet name="Отдельно ВБ AGNIA" sheetId="10" r:id="rId6"/>
+    <sheet name="Шаблон_WB" sheetId="4" r:id="rId7"/>
+    <sheet name="Шаблон_Ozon" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Шаблон_Ozon!$C$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Отдельно Озон Nimba'!$A$1:$D$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Шаблон_Ozon!$C$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="288">
   <si>
     <t>накидка синий хлопок</t>
   </si>
@@ -735,18 +738,188 @@
   </si>
   <si>
     <t>Articles_cabinet</t>
+  </si>
+  <si>
+    <t>накидка детская белый 92-110</t>
+  </si>
+  <si>
+    <t>накидка детская белый 132-152</t>
+  </si>
+  <si>
+    <t>накидка детская розовый 92-110</t>
+  </si>
+  <si>
+    <t>накидка детская розовый 132-152</t>
+  </si>
+  <si>
+    <t>детская туника голубая</t>
+  </si>
+  <si>
+    <t>накидка детская голубой 92-110</t>
+  </si>
+  <si>
+    <t>накидка детская голубой 112-130</t>
+  </si>
+  <si>
+    <t>накидка детская голубой 132-152</t>
+  </si>
+  <si>
+    <t>туника белый детская 92-110</t>
+  </si>
+  <si>
+    <t>туника белый детская 132-152</t>
+  </si>
+  <si>
+    <t>туника розовый детская 92-110</t>
+  </si>
+  <si>
+    <t>туника розовый детская 132-152</t>
+  </si>
+  <si>
+    <t>туника голубой детская 92-110</t>
+  </si>
+  <si>
+    <t>туника голубой детская 132-152</t>
+  </si>
+  <si>
+    <t>туника голубой детская 112-130</t>
+  </si>
+  <si>
+    <t>туника/детск/голубой</t>
+  </si>
+  <si>
+    <t>парео/детск/белое/132/152</t>
+  </si>
+  <si>
+    <t>парео/детск/белый92/110</t>
+  </si>
+  <si>
+    <t>парео/детс/розовый/92/110</t>
+  </si>
+  <si>
+    <t>парео/детск/розов/132/152</t>
+  </si>
+  <si>
+    <t>парео/детская/голубая/112/130</t>
+  </si>
+  <si>
+    <t>парео/детск/голубой/92/110</t>
+  </si>
+  <si>
+    <t>шифон черный</t>
+  </si>
+  <si>
+    <t>парео зелен.шифон</t>
+  </si>
+  <si>
+    <t>голубой шифон</t>
+  </si>
+  <si>
+    <t>салатовый шифон</t>
+  </si>
+  <si>
+    <t>хлопок желтый</t>
+  </si>
+  <si>
+    <t>хлопок черный</t>
+  </si>
+  <si>
+    <t>хлопок белый</t>
+  </si>
+  <si>
+    <t>хлопок голубой</t>
+  </si>
+  <si>
+    <t>шифон синий без ворот</t>
+  </si>
+  <si>
+    <t>леопард пятна туник</t>
+  </si>
+  <si>
+    <t>синие волны туник</t>
+  </si>
+  <si>
+    <t>черный лист туник</t>
+  </si>
+  <si>
+    <t>зеленый лист туник</t>
+  </si>
+  <si>
+    <t>зелёные волны туник</t>
+  </si>
+  <si>
+    <t>синяя ракушка туник</t>
+  </si>
+  <si>
+    <t>Парео синий шифон</t>
+  </si>
+  <si>
+    <t>Парео оран шиф</t>
+  </si>
+  <si>
+    <t>Черн шиф.</t>
+  </si>
+  <si>
+    <t>Парео зеленый шифон</t>
+  </si>
+  <si>
+    <t>шифон голубой</t>
+  </si>
+  <si>
+    <t>шифон салатовый</t>
+  </si>
+  <si>
+    <t>хлопок черн</t>
+  </si>
+  <si>
+    <t>без ворот синий ш</t>
+  </si>
+  <si>
+    <t>леопард пятна</t>
+  </si>
+  <si>
+    <t>синяя волна</t>
+  </si>
+  <si>
+    <t>черный лист</t>
+  </si>
+  <si>
+    <t>зеленый лист</t>
+  </si>
+  <si>
+    <t>зеленая волна</t>
+  </si>
+  <si>
+    <t>Туника ракушка</t>
+  </si>
+  <si>
+    <t>муслин белый</t>
+  </si>
+  <si>
+    <t>муслин розовый</t>
+  </si>
+  <si>
+    <t>муслин голубой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,38 +1015,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,6 +1056,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1364,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,13 +1399,11 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A4,Шаблон_Ozon!A:D,3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>IF(C2=Шаблон_Ozon!C4,Шаблон_Ozon!D4,0)</f>
-        <v>парео малина шиф</v>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,12 +1414,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A6,Шаблон_Ozon!A:D,3,0)</f>
-        <v>3</v>
+        <f>VLOOKUP(Шаблон_Ozon!A4,Шаблон_Ozon!A:D,3,0)</f>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>IF(C3=Шаблон_Ozon!C6,Шаблон_Ozon!D6,0)</f>
-        <v>парео оранж шифон</v>
+        <f>IF(C3=Шаблон_Ozon!C4,Шаблон_Ozon!D4,0)</f>
+        <v>парео малина шиф</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,12 +1430,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A8,Шаблон_Ozon!A:D,3,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(Шаблон_Ozon!A6,Шаблон_Ozon!A:D,3,0)</f>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f>IF(C4=Шаблон_Ozon!C8,Шаблон_Ozon!D8,0)</f>
-        <v>парео черный шифон</v>
+        <f>IF(C4=Шаблон_Ozon!C6,Шаблон_Ozon!D6,0)</f>
+        <v>парео оранж шифон</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,12 +1446,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A10,Шаблон_Ozon!A:D,3,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(Шаблон_Ozon!A8,Шаблон_Ozon!A:D,3,0)</f>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f>IF(C5=Шаблон_Ozon!C10,Шаблон_Ozon!D10,0)</f>
-        <v>парео фуксия</v>
+        <f>IF(C5=Шаблон_Ozon!C8,Шаблон_Ozon!D8,0)</f>
+        <v>парео черный шифон</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,12 +1462,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A12,Шаблон_Ozon!A:D,3,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(Шаблон_Ozon!A10,Шаблон_Ozon!A:D,3,0)</f>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f>IF(C6=Шаблон_Ozon!C12,Шаблон_Ozon!D12,0)</f>
-        <v>туник шифон зелёный</v>
+        <f>IF(C6=Шаблон_Ozon!C10,Шаблон_Ozon!D10,0)</f>
+        <v>парео фуксия</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,12 +1478,12 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A15,Шаблон_Ozon!A:D,3,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(Шаблон_Ozon!A12,Шаблон_Ozon!A:D,3,0)</f>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f>IF(C7=Шаблон_Ozon!C15,Шаблон_Ozon!D15,0)</f>
-        <v>туник шифон белый</v>
+        <f>IF(C7=Шаблон_Ozon!C12,Шаблон_Ozon!D12,0)</f>
+        <v>туник шифон зелёный</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,12 +1494,12 @@
         <v>13</v>
       </c>
       <c r="C8" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A17,Шаблон_Ozon!A:D,3,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(Шаблон_Ozon!A15,Шаблон_Ozon!A:D,3,0)</f>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f>IF(C8=Шаблон_Ozon!C17,Шаблон_Ozon!D17,0)</f>
-        <v>Парео голубое шиф</v>
+        <f>IF(C8=Шаблон_Ozon!C15,Шаблон_Ozon!D15,0)</f>
+        <v>туник шифон белый</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,12 +1510,12 @@
         <v>15</v>
       </c>
       <c r="C9" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A18,Шаблон_Ozon!A:D,3,0)</f>
+        <f>VLOOKUP(Шаблон_Ozon!A17,Шаблон_Ozon!A:D,3,0)</f>
         <v>9</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f>IF(C9=Шаблон_Ozon!C18,Шаблон_Ozon!D18,0)</f>
-        <v>туник шифон голубой</v>
+        <f>IF(C9=Шаблон_Ozon!C17,Шаблон_Ozon!D17,0)</f>
+        <v>Парео голубое шиф</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,12 +1526,12 @@
         <v>17</v>
       </c>
       <c r="C10" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A20,Шаблон_Ozon!A:D,3,0)</f>
-        <v>10</v>
+        <f>VLOOKUP(Шаблон_Ozon!A18,Шаблон_Ozon!A:D,3,0)</f>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f>IF(C10=Шаблон_Ozon!C20,Шаблон_Ozon!D20,0)</f>
-        <v>парео салатовый</v>
+        <f>IF(C10=Шаблон_Ozon!C18,Шаблон_Ozon!D18,0)</f>
+        <v>туник шифон голубой</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,12 +1542,12 @@
         <v>19</v>
       </c>
       <c r="C11" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A22,Шаблон_Ozon!A:D,3,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(Шаблон_Ozon!A20,Шаблон_Ozon!A:D,3,0)</f>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f>IF(C11=Шаблон_Ozon!C22,Шаблон_Ozon!D22,0)</f>
-        <v>парео желтый шиф</v>
+        <f>IF(C11=Шаблон_Ozon!C20,Шаблон_Ozon!D20,0)</f>
+        <v>парео салатовый</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,12 +1558,12 @@
         <v>21</v>
       </c>
       <c r="C12" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A23,Шаблон_Ozon!A:D,3,0)</f>
+        <f>VLOOKUP(Шаблон_Ozon!A22,Шаблон_Ozon!A:D,3,0)</f>
         <v>11</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f>IF(C12=Шаблон_Ozon!C23,Шаблон_Ozon!D23,0)</f>
-        <v>туника шифон жёлтый</v>
+        <f>IF(C12=Шаблон_Ozon!C22,Шаблон_Ozon!D22,0)</f>
+        <v>парео желтый шиф</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,12 +1574,12 @@
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A25,Шаблон_Ozon!A:D,3,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(Шаблон_Ozon!A23,Шаблон_Ozon!A:D,3,0)</f>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>IF(C13=Шаблон_Ozon!C25,Шаблон_Ozon!D25,0)</f>
-        <v>парео хлопок зелёный</v>
+        <f>IF(C13=Шаблон_Ozon!C23,Шаблон_Ozon!D23,0)</f>
+        <v>туника шифон жёлтый</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,12 +1590,12 @@
         <v>25</v>
       </c>
       <c r="C14" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A26,Шаблон_Ozon!A:D,3,0)</f>
+        <f>VLOOKUP(Шаблон_Ozon!A25,Шаблон_Ozon!A:D,3,0)</f>
         <v>12</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f>IF(C14=Шаблон_Ozon!C26,Шаблон_Ozon!D26,0)</f>
-        <v>туника хлоп зелен</v>
+        <f>IF(C14=Шаблон_Ozon!C25,Шаблон_Ozon!D25,0)</f>
+        <v>парео хлопок зелёный</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,12 +1606,12 @@
         <v>27</v>
       </c>
       <c r="C15" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A28,Шаблон_Ozon!A:D,3,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(Шаблон_Ozon!A26,Шаблон_Ozon!A:D,3,0)</f>
+        <v>12</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f>IF(C15=Шаблон_Ozon!C28,Шаблон_Ozon!D28,0)</f>
-        <v>парео хлопок синий</v>
+        <f>IF(C15=Шаблон_Ozon!C26,Шаблон_Ozon!D26,0)</f>
+        <v>туника хлоп зелен</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,12 +1622,12 @@
         <v>29</v>
       </c>
       <c r="C16" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A30,Шаблон_Ozon!A:D,3,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(Шаблон_Ozon!A28,Шаблон_Ozon!A:D,3,0)</f>
+        <v>13</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f>IF(C16=Шаблон_Ozon!C30,Шаблон_Ozon!D30,0)</f>
-        <v>туник хлоп желт</v>
+        <f>IF(C16=Шаблон_Ozon!C28,Шаблон_Ozon!D28,0)</f>
+        <v>парео хлопок синий</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,12 +1638,12 @@
         <v>31</v>
       </c>
       <c r="C17" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A31,Шаблон_Ozon!A:D,3,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(Шаблон_Ozon!A30,Шаблон_Ozon!A:D,3,0)</f>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f>IF(C17=Шаблон_Ozon!C31,Шаблон_Ozon!D31,0)</f>
-        <v>туник хлопок роза</v>
+        <f>IF(C17=Шаблон_Ozon!C30,Шаблон_Ozon!D30,0)</f>
+        <v>туник хлоп желт</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,12 +1654,12 @@
         <v>33</v>
       </c>
       <c r="C18" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A33,Шаблон_Ozon!A:D,3,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(Шаблон_Ozon!A31,Шаблон_Ozon!A:D,3,0)</f>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f>IF(C18=Шаблон_Ozon!C33,Шаблон_Ozon!D33,0)</f>
-        <v>парео черный хлопок</v>
+        <f>IF(C18=Шаблон_Ozon!C31,Шаблон_Ozon!D31,0)</f>
+        <v>туник хлопок роза</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,12 +1670,12 @@
         <v>35</v>
       </c>
       <c r="C19" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A35,Шаблон_Ozon!A:D,3,0)</f>
-        <v>17</v>
+        <f>VLOOKUP(Шаблон_Ozon!A33,Шаблон_Ozon!A:D,3,0)</f>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>IF(C19=Шаблон_Ozon!C35,Шаблон_Ozon!D35,0)</f>
-        <v>парео белый хлоп</v>
+        <f>IF(C19=Шаблон_Ozon!C33,Шаблон_Ozon!D33,0)</f>
+        <v>парео черный хлопок</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,11 +1686,12 @@
         <v>37</v>
       </c>
       <c r="C20" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A37,Шаблон_Ozon!A:D,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
+        <f>VLOOKUP(Шаблон_Ozon!A35,Шаблон_Ozon!A:D,3,0)</f>
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>IF(C20=Шаблон_Ozon!C35,Шаблон_Ozon!D35,0)</f>
+        <v>парео белый хлоп</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,12 +1702,11 @@
         <v>39</v>
       </c>
       <c r="C21" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A39,Шаблон_Ozon!A:D,3,0)</f>
-        <v>19</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f>IF(C21=Шаблон_Ozon!C39,Шаблон_Ozon!D39,0)</f>
-        <v>парео без ворот синий</v>
+        <f>VLOOKUP(Шаблон_Ozon!A37,Шаблон_Ozon!A:D,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,12 +1717,12 @@
         <v>41</v>
       </c>
       <c r="C22" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A41,Шаблон_Ozon!A:D,3,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(Шаблон_Ozon!A39,Шаблон_Ozon!A:D,3,0)</f>
+        <v>19</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f>IF(C22=Шаблон_Ozon!C41,Шаблон_Ozon!D41,0)</f>
-        <v>парео без ворот черный</v>
+        <f>IF(C22=Шаблон_Ozon!C39,Шаблон_Ozon!D39,0)</f>
+        <v>парео без ворот синий</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,12 +1733,12 @@
         <v>43</v>
       </c>
       <c r="C23" s="5">
-        <f>VLOOKUP(Шаблон_Ozon!A43,Шаблон_Ozon!A:D,3,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(Шаблон_Ozon!A41,Шаблон_Ozon!A:D,3,0)</f>
+        <v>20</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>IF(C23=Шаблон_Ozon!C43,Шаблон_Ozon!D43,0)</f>
-        <v>парео без ворот зелен</v>
+        <f>IF(C23=Шаблон_Ozon!C41,Шаблон_Ozon!D41,0)</f>
+        <v>парео без ворот черный</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1749,12 @@
         <v>45</v>
       </c>
       <c r="C24" s="5">
-        <v>22</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>223</v>
+        <f>VLOOKUP(Шаблон_Ozon!A43,Шаблон_Ozon!A:D,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>IF(C24=Шаблон_Ozon!C43,Шаблон_Ozon!D43,0)</f>
+        <v>парео без ворот зелен</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,10 +1765,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,10 +1779,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,10 +1793,10 @@
         <v>51</v>
       </c>
       <c r="C27" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,10 +1821,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,7 +1838,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,10 +1849,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,10 +1877,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,7 +1894,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,10 +1905,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,10 +1933,10 @@
         <v>69</v>
       </c>
       <c r="C37" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,10 +1961,10 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,7 +1978,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,13 +1986,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="C41" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,13 +2000,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,13 +2014,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,100 +2028,158 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="5">
+        <v>34</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C45" s="5">
         <v>35</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="5">
-        <v>36</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="5">
-        <v>41</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="5">
-        <v>43</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="5">
+        <v>39</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>40</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>40</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="5">
+        <v>40</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="5">
+        <v>41</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="5">
+        <v>42</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="5">
+        <v>43</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>44</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
@@ -2064,15 +2316,16 @@
     <sortCondition ref="E4:E104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="261" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E00AC-8E73-456B-B1C1-EDCB53E0A63F}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,10 +2876,10 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,10 +2890,10 @@
         <v>74</v>
       </c>
       <c r="C40" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,7 +2901,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>238</v>
+      </c>
+      <c r="C41" s="5">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,7 +2915,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C42" s="5">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,7 +2929,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C43" s="5">
+        <v>39</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,23 +2943,602 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="5">
+        <v>40</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C45" s="5">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="5">
+        <v>41</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D47">
-    <sortCondition ref="C2:C47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D54">
+    <sortCondition ref="C2:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0370F-0FF3-4570-B78C-3ABFA9D77D43}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19">
+        <v>14</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC00A05-3366-4B2C-9502-2EEADE74708F}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,7 +4115,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="C41" s="5">
         <v>28</v>
@@ -3279,7 +4129,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="5">
         <v>29</v>
@@ -3293,7 +4143,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5">
         <v>29</v>
@@ -3307,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5">
         <v>29</v>
@@ -3317,6 +4167,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C45" s="5">
         <v>30</v>
       </c>
@@ -3433,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3441,7 +4297,7 @@
         <v>41</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3449,7 +4305,7 @@
         <v>42</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3457,26 +4313,34 @@
         <v>43</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="5">
+        <v>44</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="11"/>
+    <row r="64" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D64" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D63">
-    <sortCondition ref="C1:C63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D64">
+    <sortCondition ref="C1:C64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B12D-B272-475E-9836-01BEA7BAFE1F}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,7 +4916,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="C41" s="5">
         <v>35</v>
@@ -4066,7 +4930,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="5">
         <v>36</v>
@@ -4080,7 +4944,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5">
         <v>37</v>
@@ -4089,92 +4953,701 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5">
         <v>38</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5">
+        <v>38</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="5">
-        <v>39</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="5">
+        <v>39</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="5">
+        <v>39</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <v>40</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <v>40</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="5">
+        <v>41</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="5">
         <v>42</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D53" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>43</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="5">
-        <v>43</v>
-      </c>
-      <c r="D49" s="11" t="s">
+    <row r="55" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>44</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D55" s="11"/>
+    <row r="56" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D61" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D55">
-    <sortCondition ref="C1:C55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D61">
+    <sortCondition ref="C1:C61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BD0058-61B6-4B31-AA54-6E1056E86631}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19">
+        <v>38</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19">
+        <v>39</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="19">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C81525-87B5-40FD-A761-0FAE8806B157}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,7 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A47A-362B-439F-910C-AAA94E4DE4D3}">
   <dimension ref="A1:E94"/>
   <sheetViews>

--- a/База данных артикулов для выкупов и начислений.xlsx
+++ b/База данных артикулов для выкупов и начислений.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Шаблоны програм (Базы данных)\База данных (выкупы и начисления)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65989CDC-A121-450B-A2EF-45AC90955F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E3376F-2E18-4A29-8C69-963BDFB3DBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отдельно Озон Nimba" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="289">
   <si>
     <t>накидка синий хлопок</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>муслин голубой</t>
+  </si>
+  <si>
+    <t>Шифон.голубой</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -997,28 +1000,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,12 +1041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1346,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,8 +1355,7 @@
     <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5"/>
     <col min="4" max="4" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,10 +1380,10 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1417,9 +1398,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A4,Шаблон_Ozon!A:D,3,0)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(C3=Шаблон_Ozon!C4,Шаблон_Ozon!D4,0)</f>
-        <v>парео малина шиф</v>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,9 +1413,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A6,Шаблон_Ozon!A:D,3,0)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>IF(C4=Шаблон_Ozon!C6,Шаблон_Ozon!D6,0)</f>
-        <v>парео оранж шифон</v>
+      <c r="D4" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,9 +1428,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A8,Шаблон_Ozon!A:D,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f>IF(C5=Шаблон_Ozon!C8,Шаблон_Ozon!D8,0)</f>
-        <v>парео черный шифон</v>
+      <c r="D5" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,9 +1443,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A10,Шаблон_Ozon!A:D,3,0)</f>
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>IF(C6=Шаблон_Ozon!C10,Шаблон_Ozon!D10,0)</f>
-        <v>парео фуксия</v>
+      <c r="D6" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,9 +1458,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A12,Шаблон_Ozon!A:D,3,0)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <f>IF(C7=Шаблон_Ozon!C12,Шаблон_Ozon!D12,0)</f>
-        <v>туник шифон зелёный</v>
+      <c r="D7" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,9 +1473,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A15,Шаблон_Ozon!A:D,3,0)</f>
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="str">
-        <f>IF(C8=Шаблон_Ozon!C15,Шаблон_Ozon!D15,0)</f>
-        <v>туник шифон белый</v>
+      <c r="D8" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,9 +1488,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A17,Шаблон_Ozon!A:D,3,0)</f>
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="str">
-        <f>IF(C9=Шаблон_Ozon!C17,Шаблон_Ozon!D17,0)</f>
-        <v>Парео голубое шиф</v>
+      <c r="D9" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,9 +1503,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A18,Шаблон_Ozon!A:D,3,0)</f>
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f>IF(C10=Шаблон_Ozon!C18,Шаблон_Ozon!D18,0)</f>
-        <v>туник шифон голубой</v>
+      <c r="D10" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,9 +1518,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A20,Шаблон_Ozon!A:D,3,0)</f>
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="str">
-        <f>IF(C11=Шаблон_Ozon!C20,Шаблон_Ozon!D20,0)</f>
-        <v>парео салатовый</v>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,9 +1533,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A22,Шаблон_Ozon!A:D,3,0)</f>
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="str">
-        <f>IF(C12=Шаблон_Ozon!C22,Шаблон_Ozon!D22,0)</f>
-        <v>парео желтый шиф</v>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,9 +1548,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A23,Шаблон_Ozon!A:D,3,0)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="str">
-        <f>IF(C13=Шаблон_Ozon!C23,Шаблон_Ozon!D23,0)</f>
-        <v>туника шифон жёлтый</v>
+      <c r="D13" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,9 +1563,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A25,Шаблон_Ozon!A:D,3,0)</f>
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="str">
-        <f>IF(C14=Шаблон_Ozon!C25,Шаблон_Ozon!D25,0)</f>
-        <v>парео хлопок зелёный</v>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,9 +1578,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A26,Шаблон_Ozon!A:D,3,0)</f>
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="str">
-        <f>IF(C15=Шаблон_Ozon!C26,Шаблон_Ozon!D26,0)</f>
-        <v>туника хлоп зелен</v>
+      <c r="D15" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,9 +1593,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A28,Шаблон_Ozon!A:D,3,0)</f>
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="str">
-        <f>IF(C16=Шаблон_Ozon!C28,Шаблон_Ozon!D28,0)</f>
-        <v>парео хлопок синий</v>
+      <c r="D16" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,9 +1608,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A30,Шаблон_Ozon!A:D,3,0)</f>
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="str">
-        <f>IF(C17=Шаблон_Ozon!C30,Шаблон_Ozon!D30,0)</f>
-        <v>туник хлоп желт</v>
+      <c r="D17" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,9 +1623,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A31,Шаблон_Ozon!A:D,3,0)</f>
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="str">
-        <f>IF(C18=Шаблон_Ozon!C31,Шаблон_Ozon!D31,0)</f>
-        <v>туник хлопок роза</v>
+      <c r="D18" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,9 +1638,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A33,Шаблон_Ozon!A:D,3,0)</f>
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="str">
-        <f>IF(C19=Шаблон_Ozon!C33,Шаблон_Ozon!D33,0)</f>
-        <v>парео черный хлопок</v>
+      <c r="D19" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,9 +1653,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A35,Шаблон_Ozon!A:D,3,0)</f>
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="str">
-        <f>IF(C20=Шаблон_Ozon!C35,Шаблон_Ozon!D35,0)</f>
-        <v>парео белый хлоп</v>
+      <c r="D20" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,9 +1683,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A39,Шаблон_Ozon!A:D,3,0)</f>
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f>IF(C22=Шаблон_Ozon!C39,Шаблон_Ozon!D39,0)</f>
-        <v>парео без ворот синий</v>
+      <c r="D22" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,9 +1698,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A41,Шаблон_Ozon!A:D,3,0)</f>
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="str">
-        <f>IF(C23=Шаблон_Ozon!C41,Шаблон_Ozon!D41,0)</f>
-        <v>парео без ворот черный</v>
+      <c r="D23" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,9 +1713,8 @@
         <f>VLOOKUP(Шаблон_Ozon!A43,Шаблон_Ozon!A:D,3,0)</f>
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="str">
-        <f>IF(C24=Шаблон_Ozon!C43,Шаблон_Ozon!D43,0)</f>
-        <v>парео без ворот зелен</v>
+      <c r="D24" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2090,6 @@
       <c r="D55" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
@@ -2140,7 +2099,6 @@
       <c r="D56" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
@@ -2150,17 +2108,15 @@
       <c r="D57" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="5">
         <v>42</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
@@ -2170,17 +2126,15 @@
       <c r="D59" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="5">
         <v>44</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
@@ -3007,526 +2961,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>9</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>18</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>25</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>26</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>29</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5104,538 +5058,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>18</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>25</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>26</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>29</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>38</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>39</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>40</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
